--- a/output/StructureDefinition-heart-rate-observation.xlsx
+++ b/output/StructureDefinition-heart-rate-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-26T10:45:41+00:00</t>
+    <t>2024-12-26T11:41:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-heart-rate-observation.xlsx
+++ b/output/StructureDefinition-heart-rate-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-26T11:41:10+00:00</t>
+    <t>2024-12-27T22:28:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-heart-rate-observation.xlsx
+++ b/output/StructureDefinition-heart-rate-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-27T22:28:35+00:00</t>
+    <t>2025-01-02T17:46:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-heart-rate-observation.xlsx
+++ b/output/StructureDefinition-heart-rate-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T17:46:41+00:00</t>
+    <t>2025-01-02T19:32:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-heart-rate-observation.xlsx
+++ b/output/StructureDefinition-heart-rate-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T19:32:36+00:00</t>
+    <t>2025-01-03T09:54:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-heart-rate-observation.xlsx
+++ b/output/StructureDefinition-heart-rate-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-03T09:54:59+00:00</t>
+    <t>2025-01-04T21:28:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-heart-rate-observation.xlsx
+++ b/output/StructureDefinition-heart-rate-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-04T21:28:42+00:00</t>
+    <t>2025-01-04T22:09:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-heart-rate-observation.xlsx
+++ b/output/StructureDefinition-heart-rate-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-04T22:09:55+00:00</t>
+    <t>2025-01-04T22:27:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-heart-rate-observation.xlsx
+++ b/output/StructureDefinition-heart-rate-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-04T22:27:27+00:00</t>
+    <t>2025-01-04T22:47:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-heart-rate-observation.xlsx
+++ b/output/StructureDefinition-heart-rate-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-04T22:47:01+00:00</t>
+    <t>2025-01-14T13:24:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-heart-rate-observation.xlsx
+++ b/output/StructureDefinition-heart-rate-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-14T13:24:18+00:00</t>
+    <t>2025-01-24T12:30:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-heart-rate-observation.xlsx
+++ b/output/StructureDefinition-heart-rate-observation.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://github.com/RicardoLSantos/shorthand/StructureDefinition/heart-rate-observation</t>
+    <t>https://2rdoc.pt/ig/ios-lifestyle-medicine/StructureDefinition/heart-rate-observation</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-24T12:30:11+00:00</t>
+    <t>2025-08-20T10:40:04+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://github.com/RicardoLSantos/shorthand/StructureDefinition/lifestyle-vital-signs</t>
+    <t>https://2rdoc.pt/ig/ios-lifestyle-medicine/StructureDefinition/lifestyle-vital-signs</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -2372,17 +2372,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="71.54296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="42.9296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="61.71484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="37.03125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="15.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="33.17578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="107.140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="92.421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2391,28 +2391,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="61.7265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="51.97265625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="39.421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.80078125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.24609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="44.83203125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="34.578125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.0078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="245.78125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="23.0234375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="212.015625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="102.73828125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="38.60546875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="88.625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="28.5078125" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="33.30078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/output/StructureDefinition-heart-rate-observation.xlsx
+++ b/output/StructureDefinition-heart-rate-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-20T10:40:04+01:00</t>
+    <t>2025-08-20T17:48:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-heart-rate-observation.xlsx
+++ b/output/StructureDefinition-heart-rate-observation.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$116</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$140</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4512" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5433" uniqueCount="681">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T16:36:18+01:00</t>
+    <t>2025-10-01T23:24:47+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1905,9 +1905,63 @@
     <t>Observation.component:restingHeartRate.code</t>
   </si>
   <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://loinc.org"/&gt;
+    &lt;code value="40443-4"/&gt;
+    &lt;display value="Heart rate --resting"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
     <t>Observation.component:restingHeartRate.value[x]</t>
   </si>
   <si>
+    <t>Observation.component:restingHeartRate.value[x]:valueQuantity</t>
+  </si>
+  <si>
+    <t>Observation.component:restingHeartRate.value[x]:valueQuantity.id</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].id</t>
+  </si>
+  <si>
+    <t>Observation.component:restingHeartRate.value[x]:valueQuantity.extension</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].extension</t>
+  </si>
+  <si>
+    <t>Observation.component:restingHeartRate.value[x]:valueQuantity.value</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].value</t>
+  </si>
+  <si>
+    <t>Observation.component:restingHeartRate.value[x]:valueQuantity.comparator</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].comparator</t>
+  </si>
+  <si>
+    <t>Observation.component:restingHeartRate.value[x]:valueQuantity.unit</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].unit</t>
+  </si>
+  <si>
+    <t>Observation.component:restingHeartRate.value[x]:valueQuantity.system</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].system</t>
+  </si>
+  <si>
+    <t>Observation.component:restingHeartRate.value[x]:valueQuantity.code</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].code</t>
+  </si>
+  <si>
     <t>Observation.component:restingHeartRate.dataAbsentReason</t>
   </si>
   <si>
@@ -1935,9 +1989,42 @@
     <t>Observation.component:exerciseHeartRate.code</t>
   </si>
   <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://loinc.org"/&gt;
+    &lt;code value="55425-3"/&gt;
+    &lt;display value="Heart rate --during exercise"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
     <t>Observation.component:exerciseHeartRate.value[x]</t>
   </si>
   <si>
+    <t>Observation.component:exerciseHeartRate.value[x]:valueQuantity</t>
+  </si>
+  <si>
+    <t>Observation.component:exerciseHeartRate.value[x]:valueQuantity.id</t>
+  </si>
+  <si>
+    <t>Observation.component:exerciseHeartRate.value[x]:valueQuantity.extension</t>
+  </si>
+  <si>
+    <t>Observation.component:exerciseHeartRate.value[x]:valueQuantity.value</t>
+  </si>
+  <si>
+    <t>Observation.component:exerciseHeartRate.value[x]:valueQuantity.comparator</t>
+  </si>
+  <si>
+    <t>Observation.component:exerciseHeartRate.value[x]:valueQuantity.unit</t>
+  </si>
+  <si>
+    <t>Observation.component:exerciseHeartRate.value[x]:valueQuantity.system</t>
+  </si>
+  <si>
+    <t>Observation.component:exerciseHeartRate.value[x]:valueQuantity.code</t>
+  </si>
+  <si>
     <t>Observation.component:exerciseHeartRate.dataAbsentReason</t>
   </si>
   <si>
@@ -1965,7 +2052,40 @@
     <t>Observation.component:recoveryHeartRate.code</t>
   </si>
   <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://loinc.org"/&gt;
+    &lt;code value="69999-9"/&gt;
+    &lt;display value="Heart rate --post exercise"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
     <t>Observation.component:recoveryHeartRate.value[x]</t>
+  </si>
+  <si>
+    <t>Observation.component:recoveryHeartRate.value[x]:valueQuantity</t>
+  </si>
+  <si>
+    <t>Observation.component:recoveryHeartRate.value[x]:valueQuantity.id</t>
+  </si>
+  <si>
+    <t>Observation.component:recoveryHeartRate.value[x]:valueQuantity.extension</t>
+  </si>
+  <si>
+    <t>Observation.component:recoveryHeartRate.value[x]:valueQuantity.value</t>
+  </si>
+  <si>
+    <t>Observation.component:recoveryHeartRate.value[x]:valueQuantity.comparator</t>
+  </si>
+  <si>
+    <t>Observation.component:recoveryHeartRate.value[x]:valueQuantity.unit</t>
+  </si>
+  <si>
+    <t>Observation.component:recoveryHeartRate.value[x]:valueQuantity.system</t>
+  </si>
+  <si>
+    <t>Observation.component:recoveryHeartRate.value[x]:valueQuantity.code</t>
   </si>
   <si>
     <t>Observation.component:recoveryHeartRate.dataAbsentReason</t>
@@ -2013,43 +2133,22 @@
     <t>Observation.component:heartRateVariability.value[x]:valueQuantity.id</t>
   </si>
   <si>
-    <t>Observation.component.value[x].id</t>
-  </si>
-  <si>
     <t>Observation.component:heartRateVariability.value[x]:valueQuantity.extension</t>
   </si>
   <si>
-    <t>Observation.component.value[x].extension</t>
-  </si>
-  <si>
     <t>Observation.component:heartRateVariability.value[x]:valueQuantity.value</t>
   </si>
   <si>
-    <t>Observation.component.value[x].value</t>
-  </si>
-  <si>
     <t>Observation.component:heartRateVariability.value[x]:valueQuantity.comparator</t>
   </si>
   <si>
-    <t>Observation.component.value[x].comparator</t>
-  </si>
-  <si>
     <t>Observation.component:heartRateVariability.value[x]:valueQuantity.unit</t>
   </si>
   <si>
-    <t>Observation.component.value[x].unit</t>
-  </si>
-  <si>
     <t>Observation.component:heartRateVariability.value[x]:valueQuantity.system</t>
   </si>
   <si>
-    <t>Observation.component.value[x].system</t>
-  </si>
-  <si>
     <t>Observation.component:heartRateVariability.value[x]:valueQuantity.code</t>
-  </si>
-  <si>
-    <t>Observation.component.value[x].code</t>
   </si>
   <si>
     <t>ms</t>
@@ -2421,7 +2520,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP116"/>
+  <dimension ref="A1:AP140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -11699,7 +11798,7 @@
         <v>87</v>
       </c>
       <c r="S77" t="s" s="2">
-        <v>87</v>
+        <v>603</v>
       </c>
       <c r="T77" t="s" s="2">
         <v>87</v>
@@ -11773,7 +11872,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>580</v>
@@ -11848,16 +11947,14 @@
         <v>87</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>87</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="AC78" s="2"/>
       <c r="AD78" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>87</v>
+        <v>203</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>580</v>
@@ -11895,12 +11992,14 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="C79" s="2"/>
+        <v>580</v>
+      </c>
+      <c r="C79" t="s" s="2">
+        <v>377</v>
+      </c>
       <c r="D79" t="s" s="2">
         <v>87</v>
       </c>
@@ -11918,22 +12017,22 @@
         <v>87</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>195</v>
+        <v>378</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>434</v>
+        <v>370</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>87</v>
@@ -11961,10 +12060,10 @@
         <v>296</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>435</v>
+        <v>584</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>436</v>
+        <v>585</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>87</v>
@@ -11982,7 +12081,7 @@
         <v>87</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>85</v>
@@ -11991,7 +12090,7 @@
         <v>98</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>110</v>
@@ -12000,38 +12099,38 @@
         <v>87</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>87</v>
+        <v>587</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>141</v>
+        <v>373</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>438</v>
+        <v>374</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AP79" t="s" s="2">
-        <v>87</v>
+        <v>375</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>593</v>
+        <v>607</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>440</v>
+        <v>87</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>87</v>
@@ -12043,20 +12142,16 @@
         <v>87</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>441</v>
+        <v>211</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>444</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>87</v>
       </c>
@@ -12080,13 +12175,13 @@
         <v>87</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>296</v>
+        <v>87</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>445</v>
+        <v>87</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>446</v>
+        <v>87</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>87</v>
@@ -12104,49 +12199,49 @@
         <v>87</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>593</v>
+        <v>213</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>447</v>
+        <v>87</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>448</v>
+        <v>87</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>449</v>
+        <v>214</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AP80" t="s" s="2">
-        <v>450</v>
+        <v>87</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>594</v>
+        <v>609</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -12165,20 +12260,18 @@
         <v>87</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>595</v>
+        <v>145</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>596</v>
+        <v>217</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>502</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>87</v>
       </c>
@@ -12214,19 +12307,19 @@
         <v>87</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>87</v>
+        <v>218</v>
       </c>
       <c r="AC81" t="s" s="2">
-        <v>87</v>
+        <v>219</v>
       </c>
       <c r="AD81" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>87</v>
+        <v>203</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>594</v>
+        <v>220</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>85</v>
@@ -12238,7 +12331,7 @@
         <v>87</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>87</v>
@@ -12247,10 +12340,10 @@
         <v>87</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>504</v>
+        <v>87</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>505</v>
+        <v>214</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>87</v>
@@ -12261,14 +12354,12 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="C82" t="s" s="2">
-        <v>608</v>
-      </c>
+        <v>611</v>
+      </c>
+      <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
         <v>87</v>
       </c>
@@ -12280,7 +12371,7 @@
         <v>98</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>87</v>
@@ -12289,19 +12380,19 @@
         <v>99</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>498</v>
+        <v>385</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>564</v>
+        <v>386</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>564</v>
+        <v>387</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>565</v>
+        <v>388</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>566</v>
+        <v>389</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>87</v>
@@ -12350,19 +12441,19 @@
         <v>87</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>563</v>
+        <v>390</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>568</v>
+        <v>110</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>87</v>
@@ -12371,10 +12462,10 @@
         <v>87</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>569</v>
+        <v>391</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>570</v>
+        <v>392</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>87</v>
@@ -12385,10 +12476,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>571</v>
+        <v>613</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12405,26 +12496,30 @@
         <v>87</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>210</v>
+        <v>118</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>211</v>
+        <v>395</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>212</v>
+        <v>396</v>
       </c>
       <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
+      <c r="O83" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="P83" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="Q83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>398</v>
+      </c>
       <c r="R83" t="s" s="2">
         <v>87</v>
       </c>
@@ -12444,13 +12539,13 @@
         <v>87</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>87</v>
+        <v>187</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>87</v>
+        <v>399</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>87</v>
+        <v>400</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>87</v>
@@ -12468,7 +12563,7 @@
         <v>87</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>213</v>
+        <v>401</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>85</v>
@@ -12480,7 +12575,7 @@
         <v>87</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>87</v>
@@ -12489,10 +12584,10 @@
         <v>87</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>87</v>
+        <v>402</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>214</v>
+        <v>403</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>87</v>
@@ -12503,21 +12598,21 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>572</v>
+        <v>615</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>143</v>
+        <v>87</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>87</v>
@@ -12526,21 +12621,21 @@
         <v>87</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>144</v>
+        <v>210</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>145</v>
+        <v>406</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="O84" s="2"/>
+        <v>407</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>408</v>
+      </c>
       <c r="P84" t="s" s="2">
         <v>87</v>
       </c>
@@ -12588,19 +12683,19 @@
         <v>87</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>220</v>
+        <v>409</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>87</v>
@@ -12609,10 +12704,10 @@
         <v>87</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>87</v>
+        <v>410</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>214</v>
+        <v>411</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>87</v>
@@ -12623,45 +12718,43 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>573</v>
+        <v>617</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>509</v>
+        <v>87</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>87</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="J85" t="s" s="2">
         <v>99</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>510</v>
+        <v>414</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
-        <v>153</v>
+        <v>416</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>87</v>
@@ -12671,7 +12764,7 @@
         <v>87</v>
       </c>
       <c r="S85" t="s" s="2">
-        <v>87</v>
+        <v>417</v>
       </c>
       <c r="T85" t="s" s="2">
         <v>87</v>
@@ -12710,19 +12803,19 @@
         <v>87</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>512</v>
+        <v>418</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>87</v>
+        <v>419</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>87</v>
@@ -12731,10 +12824,10 @@
         <v>87</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>87</v>
+        <v>410</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>141</v>
+        <v>420</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>87</v>
@@ -12745,10 +12838,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>574</v>
+        <v>619</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12756,13 +12849,13 @@
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>98</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>87</v>
@@ -12771,19 +12864,19 @@
         <v>99</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>195</v>
+        <v>118</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>575</v>
+        <v>423</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>576</v>
+        <v>424</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>577</v>
+        <v>425</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>578</v>
+        <v>426</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>87</v>
@@ -12793,7 +12886,7 @@
         <v>87</v>
       </c>
       <c r="S86" t="s" s="2">
-        <v>87</v>
+        <v>427</v>
       </c>
       <c r="T86" t="s" s="2">
         <v>87</v>
@@ -12808,13 +12901,13 @@
         <v>87</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>296</v>
+        <v>87</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>297</v>
+        <v>87</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>298</v>
+        <v>87</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>87</v>
@@ -12832,10 +12925,10 @@
         <v>87</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>574</v>
+        <v>428</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>98</v>
@@ -12850,16 +12943,16 @@
         <v>87</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>579</v>
+        <v>87</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>301</v>
+        <v>410</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>302</v>
+        <v>429</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>303</v>
+        <v>87</v>
       </c>
       <c r="AP86" t="s" s="2">
         <v>87</v>
@@ -12867,10 +12960,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12890,22 +12983,22 @@
         <v>87</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>367</v>
+        <v>195</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>370</v>
+        <v>434</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>87</v>
@@ -12933,10 +13026,10 @@
         <v>296</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>584</v>
+        <v>435</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>585</v>
+        <v>436</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>87</v>
@@ -12954,7 +13047,7 @@
         <v>87</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>85</v>
@@ -12963,7 +13056,7 @@
         <v>98</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>110</v>
@@ -12972,41 +13065,41 @@
         <v>87</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>587</v>
+        <v>87</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>373</v>
+        <v>141</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>374</v>
+        <v>438</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AP87" t="s" s="2">
-        <v>375</v>
+        <v>87</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>87</v>
+        <v>440</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="I88" t="s" s="2">
         <v>87</v>
@@ -13018,16 +13111,16 @@
         <v>195</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>589</v>
+        <v>441</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>590</v>
+        <v>442</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>591</v>
+        <v>443</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>87</v>
@@ -13055,10 +13148,10 @@
         <v>296</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>87</v>
@@ -13076,16 +13169,16 @@
         <v>87</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>592</v>
+        <v>87</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>110</v>
@@ -13094,31 +13187,31 @@
         <v>87</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>87</v>
+        <v>447</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>141</v>
+        <v>448</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AP88" t="s" s="2">
-        <v>87</v>
+        <v>450</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>440</v>
+        <v>87</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -13137,19 +13230,19 @@
         <v>87</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>195</v>
+        <v>88</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>441</v>
+        <v>595</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>442</v>
+        <v>596</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>443</v>
+        <v>501</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>444</v>
+        <v>502</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>87</v>
@@ -13174,13 +13267,13 @@
         <v>87</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>296</v>
+        <v>87</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>445</v>
+        <v>87</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>446</v>
+        <v>87</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>87</v>
@@ -13198,7 +13291,7 @@
         <v>87</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>85</v>
@@ -13216,29 +13309,31 @@
         <v>87</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>447</v>
+        <v>87</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>448</v>
+        <v>504</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>449</v>
+        <v>505</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AP89" t="s" s="2">
-        <v>450</v>
+        <v>87</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="C90" s="2"/>
+        <v>563</v>
+      </c>
+      <c r="C90" t="s" s="2">
+        <v>624</v>
+      </c>
       <c r="D90" t="s" s="2">
         <v>87</v>
       </c>
@@ -13247,31 +13342,31 @@
         <v>85</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="I90" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>88</v>
+        <v>498</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>595</v>
+        <v>564</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>596</v>
+        <v>564</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>501</v>
+        <v>565</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>502</v>
+        <v>566</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>87</v>
@@ -13320,7 +13415,7 @@
         <v>87</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>594</v>
+        <v>563</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>85</v>
@@ -13332,7 +13427,7 @@
         <v>87</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>110</v>
+        <v>568</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>87</v>
@@ -13341,10 +13436,10 @@
         <v>87</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>504</v>
+        <v>569</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>505</v>
+        <v>570</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>87</v>
@@ -13355,14 +13450,12 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="C91" t="s" s="2">
-        <v>618</v>
-      </c>
+        <v>571</v>
+      </c>
+      <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
         <v>87</v>
       </c>
@@ -13374,29 +13467,25 @@
         <v>98</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>498</v>
+        <v>210</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>564</v>
+        <v>211</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>566</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="N91" s="2"/>
+      <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>87</v>
       </c>
@@ -13444,19 +13533,19 @@
         <v>87</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>563</v>
+        <v>213</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>568</v>
+        <v>87</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>87</v>
@@ -13465,10 +13554,10 @@
         <v>87</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>569</v>
+        <v>87</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>570</v>
+        <v>214</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>87</v>
@@ -13479,21 +13568,21 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>87</v>
@@ -13505,15 +13594,17 @@
         <v>87</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>211</v>
+        <v>145</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N92" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>87</v>
@@ -13562,19 +13653,19 @@
         <v>87</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>87</v>
+        <v>149</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>87</v>
@@ -13597,14 +13688,14 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>143</v>
+        <v>509</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
@@ -13617,24 +13708,26 @@
         <v>87</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K93" t="s" s="2">
         <v>144</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>145</v>
+        <v>510</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>217</v>
+        <v>511</v>
       </c>
       <c r="N93" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="O93" s="2"/>
+      <c r="O93" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="P93" t="s" s="2">
         <v>87</v>
       </c>
@@ -13682,7 +13775,7 @@
         <v>87</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>220</v>
+        <v>512</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>85</v>
@@ -13706,7 +13799,7 @@
         <v>87</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>214</v>
+        <v>141</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>87</v>
@@ -13717,45 +13810,45 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>509</v>
+        <v>87</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="J94" t="s" s="2">
         <v>99</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>144</v>
+        <v>195</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>510</v>
+        <v>575</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>511</v>
+        <v>576</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>147</v>
+        <v>577</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>153</v>
+        <v>578</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>87</v>
@@ -13765,7 +13858,7 @@
         <v>87</v>
       </c>
       <c r="S94" t="s" s="2">
-        <v>87</v>
+        <v>629</v>
       </c>
       <c r="T94" t="s" s="2">
         <v>87</v>
@@ -13780,13 +13873,13 @@
         <v>87</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>87</v>
+        <v>296</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>87</v>
+        <v>297</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>87</v>
+        <v>298</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>87</v>
@@ -13804,34 +13897,34 @@
         <v>87</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>512</v>
+        <v>574</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>87</v>
+        <v>579</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>87</v>
+        <v>301</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>141</v>
+        <v>302</v>
       </c>
       <c r="AO94" t="s" s="2">
-        <v>87</v>
+        <v>303</v>
       </c>
       <c r="AP94" t="s" s="2">
         <v>87</v>
@@ -13839,10 +13932,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13850,7 +13943,7 @@
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>98</v>
@@ -13865,19 +13958,19 @@
         <v>99</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>195</v>
+        <v>367</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>578</v>
+        <v>370</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>87</v>
@@ -13905,37 +13998,35 @@
         <v>296</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>297</v>
+        <v>584</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>298</v>
+        <v>585</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AB95" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>87</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="AC95" s="2"/>
       <c r="AD95" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>87</v>
+        <v>203</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>87</v>
+        <v>586</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>110</v>
@@ -13944,29 +14035,31 @@
         <v>87</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>301</v>
+        <v>373</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>302</v>
+        <v>374</v>
       </c>
       <c r="AO95" t="s" s="2">
-        <v>303</v>
+        <v>87</v>
       </c>
       <c r="AP95" t="s" s="2">
-        <v>87</v>
+        <v>375</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>580</v>
       </c>
-      <c r="C96" s="2"/>
+      <c r="C96" t="s" s="2">
+        <v>377</v>
+      </c>
       <c r="D96" t="s" s="2">
         <v>87</v>
       </c>
@@ -13987,7 +14080,7 @@
         <v>99</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="L96" t="s" s="2">
         <v>581</v>
@@ -14083,10 +14176,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>588</v>
+        <v>607</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14100,7 +14193,7 @@
         <v>98</v>
       </c>
       <c r="H97" t="s" s="2">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="I97" t="s" s="2">
         <v>87</v>
@@ -14109,20 +14202,16 @@
         <v>87</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>589</v>
+        <v>211</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>434</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>87</v>
       </c>
@@ -14146,13 +14235,13 @@
         <v>87</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>296</v>
+        <v>87</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>435</v>
+        <v>87</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>436</v>
+        <v>87</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>87</v>
@@ -14170,7 +14259,7 @@
         <v>87</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>588</v>
+        <v>213</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>85</v>
@@ -14179,10 +14268,10 @@
         <v>98</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>592</v>
+        <v>87</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>87</v>
@@ -14191,10 +14280,10 @@
         <v>87</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>141</v>
+        <v>87</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>438</v>
+        <v>214</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>87</v>
@@ -14205,14 +14294,14 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>593</v>
+        <v>609</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>440</v>
+        <v>143</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
@@ -14231,20 +14320,18 @@
         <v>87</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>195</v>
+        <v>144</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>441</v>
+        <v>145</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>442</v>
+        <v>217</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>444</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>87</v>
       </c>
@@ -14268,31 +14355,31 @@
         <v>87</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>296</v>
+        <v>87</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>445</v>
+        <v>87</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>446</v>
+        <v>87</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AB98" t="s" s="2">
-        <v>87</v>
+        <v>218</v>
       </c>
       <c r="AC98" t="s" s="2">
-        <v>87</v>
+        <v>219</v>
       </c>
       <c r="AD98" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>87</v>
+        <v>203</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>593</v>
+        <v>220</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>85</v>
@@ -14304,33 +14391,33 @@
         <v>87</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>447</v>
+        <v>87</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>448</v>
+        <v>87</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>449</v>
+        <v>214</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AP98" t="s" s="2">
-        <v>450</v>
+        <v>87</v>
       </c>
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>594</v>
+        <v>611</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14341,7 +14428,7 @@
         <v>85</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>87</v>
@@ -14350,22 +14437,22 @@
         <v>87</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>88</v>
+        <v>385</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>595</v>
+        <v>386</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>596</v>
+        <v>387</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>501</v>
+        <v>388</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>502</v>
+        <v>389</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>87</v>
@@ -14414,13 +14501,13 @@
         <v>87</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>594</v>
+        <v>390</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>87</v>
@@ -14435,10 +14522,10 @@
         <v>87</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>504</v>
+        <v>391</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>505</v>
+        <v>392</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>87</v>
@@ -14449,14 +14536,12 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="C100" t="s" s="2">
-        <v>628</v>
-      </c>
+        <v>613</v>
+      </c>
+      <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
         <v>87</v>
       </c>
@@ -14468,33 +14553,33 @@
         <v>98</v>
       </c>
       <c r="H100" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="I100" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="J100" t="s" s="2">
         <v>99</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>498</v>
+        <v>118</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>564</v>
+        <v>395</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>565</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
-        <v>566</v>
+        <v>397</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="Q100" s="2"/>
+      <c r="Q100" t="s" s="2">
+        <v>398</v>
+      </c>
       <c r="R100" t="s" s="2">
         <v>87</v>
       </c>
@@ -14514,13 +14599,13 @@
         <v>87</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>87</v>
+        <v>187</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>87</v>
+        <v>399</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>87</v>
+        <v>400</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>87</v>
@@ -14538,19 +14623,19 @@
         <v>87</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>563</v>
+        <v>401</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>568</v>
+        <v>110</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>87</v>
@@ -14559,10 +14644,10 @@
         <v>87</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>569</v>
+        <v>402</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>570</v>
+        <v>403</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>87</v>
@@ -14573,10 +14658,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>571</v>
+        <v>615</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14596,19 +14681,21 @@
         <v>87</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K101" t="s" s="2">
         <v>210</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>211</v>
+        <v>406</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>212</v>
+        <v>407</v>
       </c>
       <c r="N101" s="2"/>
-      <c r="O101" s="2"/>
+      <c r="O101" t="s" s="2">
+        <v>408</v>
+      </c>
       <c r="P101" t="s" s="2">
         <v>87</v>
       </c>
@@ -14656,7 +14743,7 @@
         <v>87</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>213</v>
+        <v>409</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>85</v>
@@ -14668,7 +14755,7 @@
         <v>87</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>87</v>
@@ -14677,10 +14764,10 @@
         <v>87</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>87</v>
+        <v>410</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>214</v>
+        <v>411</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>87</v>
@@ -14691,21 +14778,21 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>572</v>
+        <v>617</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>143</v>
+        <v>87</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>87</v>
@@ -14714,21 +14801,21 @@
         <v>87</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>145</v>
+        <v>414</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="O102" s="2"/>
+        <v>415</v>
+      </c>
+      <c r="N102" s="2"/>
+      <c r="O102" t="s" s="2">
+        <v>416</v>
+      </c>
       <c r="P102" t="s" s="2">
         <v>87</v>
       </c>
@@ -14737,7 +14824,7 @@
         <v>87</v>
       </c>
       <c r="S102" t="s" s="2">
-        <v>87</v>
+        <v>417</v>
       </c>
       <c r="T102" t="s" s="2">
         <v>87</v>
@@ -14776,19 +14863,19 @@
         <v>87</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>220</v>
+        <v>418</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>87</v>
+        <v>419</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>87</v>
@@ -14797,10 +14884,10 @@
         <v>87</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>87</v>
+        <v>410</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>214</v>
+        <v>420</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>87</v>
@@ -14811,45 +14898,45 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>573</v>
+        <v>619</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>509</v>
+        <v>87</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>87</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="J103" t="s" s="2">
         <v>99</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>510</v>
+        <v>423</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>511</v>
+        <v>424</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>147</v>
+        <v>425</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>153</v>
+        <v>426</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>87</v>
@@ -14859,7 +14946,7 @@
         <v>87</v>
       </c>
       <c r="S103" t="s" s="2">
-        <v>87</v>
+        <v>427</v>
       </c>
       <c r="T103" t="s" s="2">
         <v>87</v>
@@ -14898,19 +14985,19 @@
         <v>87</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>512</v>
+        <v>428</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>87</v>
@@ -14919,10 +15006,10 @@
         <v>87</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>87</v>
+        <v>410</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>141</v>
+        <v>429</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>87</v>
@@ -14933,10 +15020,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>574</v>
+        <v>588</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14944,7 +15031,7 @@
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>98</v>
@@ -14956,22 +15043,22 @@
         <v>87</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="K104" t="s" s="2">
         <v>195</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>576</v>
+        <v>590</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>577</v>
+        <v>591</v>
       </c>
       <c r="O104" t="s" s="2">
-        <v>578</v>
+        <v>434</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>87</v>
@@ -14981,7 +15068,7 @@
         <v>87</v>
       </c>
       <c r="S104" t="s" s="2">
-        <v>633</v>
+        <v>87</v>
       </c>
       <c r="T104" t="s" s="2">
         <v>87</v>
@@ -14999,10 +15086,10 @@
         <v>296</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>297</v>
+        <v>435</v>
       </c>
       <c r="Z104" t="s" s="2">
-        <v>298</v>
+        <v>436</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>87</v>
@@ -15020,16 +15107,16 @@
         <v>87</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>574</v>
+        <v>588</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>87</v>
+        <v>592</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>110</v>
@@ -15038,16 +15125,16 @@
         <v>87</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>579</v>
+        <v>87</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>301</v>
+        <v>141</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>302</v>
+        <v>438</v>
       </c>
       <c r="AO104" t="s" s="2">
-        <v>303</v>
+        <v>87</v>
       </c>
       <c r="AP104" t="s" s="2">
         <v>87</v>
@@ -15055,45 +15142,45 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>580</v>
+        <v>593</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>87</v>
+        <v>440</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="H105" t="s" s="2">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="I105" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>367</v>
+        <v>195</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>581</v>
+        <v>441</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>582</v>
+        <v>442</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>583</v>
+        <v>443</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>370</v>
+        <v>444</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>87</v>
@@ -15121,35 +15208,37 @@
         <v>296</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>584</v>
+        <v>445</v>
       </c>
       <c r="Z105" t="s" s="2">
-        <v>585</v>
+        <v>446</v>
       </c>
       <c r="AA105" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AB105" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AC105" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>87</v>
+      </c>
       <c r="AD105" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>203</v>
+        <v>87</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>580</v>
+        <v>593</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>586</v>
+        <v>87</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>110</v>
@@ -15158,31 +15247,29 @@
         <v>87</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>587</v>
+        <v>447</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>373</v>
+        <v>448</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>374</v>
+        <v>449</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AP105" t="s" s="2">
-        <v>375</v>
+        <v>450</v>
       </c>
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="C106" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>594</v>
+      </c>
+      <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
         <v>87</v>
       </c>
@@ -15191,31 +15278,31 @@
         <v>85</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="H106" t="s" s="2">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="I106" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>378</v>
+        <v>88</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>581</v>
+        <v>595</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>582</v>
+        <v>596</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>583</v>
+        <v>501</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>370</v>
+        <v>502</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>87</v>
@@ -15240,13 +15327,13 @@
         <v>87</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>296</v>
+        <v>87</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>584</v>
+        <v>87</v>
       </c>
       <c r="Z106" t="s" s="2">
-        <v>585</v>
+        <v>87</v>
       </c>
       <c r="AA106" t="s" s="2">
         <v>87</v>
@@ -15264,16 +15351,16 @@
         <v>87</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>580</v>
+        <v>594</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>586</v>
+        <v>87</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>110</v>
@@ -15282,29 +15369,31 @@
         <v>87</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>587</v>
+        <v>87</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>373</v>
+        <v>504</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>374</v>
+        <v>505</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AP106" t="s" s="2">
-        <v>375</v>
+        <v>87</v>
       </c>
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="C107" s="2"/>
+        <v>563</v>
+      </c>
+      <c r="C107" t="s" s="2">
+        <v>643</v>
+      </c>
       <c r="D107" t="s" s="2">
         <v>87</v>
       </c>
@@ -15316,25 +15405,29 @@
         <v>98</v>
       </c>
       <c r="H107" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="I107" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>210</v>
+        <v>498</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>211</v>
+        <v>564</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N107" s="2"/>
-      <c r="O107" s="2"/>
+        <v>564</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="O107" t="s" s="2">
+        <v>566</v>
+      </c>
       <c r="P107" t="s" s="2">
         <v>87</v>
       </c>
@@ -15382,19 +15475,19 @@
         <v>87</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>213</v>
+        <v>563</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="AI107" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>87</v>
+        <v>568</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>87</v>
@@ -15403,10 +15496,10 @@
         <v>87</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>87</v>
+        <v>569</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>214</v>
+        <v>570</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>87</v>
@@ -15417,21 +15510,21 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>639</v>
+        <v>571</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>143</v>
+        <v>87</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>87</v>
@@ -15443,17 +15536,15 @@
         <v>87</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>144</v>
+        <v>210</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>145</v>
+        <v>211</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="N108" s="2"/>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
         <v>87</v>
@@ -15490,31 +15581,31 @@
         <v>87</v>
       </c>
       <c r="AB108" t="s" s="2">
-        <v>218</v>
+        <v>87</v>
       </c>
       <c r="AC108" t="s" s="2">
-        <v>219</v>
+        <v>87</v>
       </c>
       <c r="AD108" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>203</v>
+        <v>87</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>149</v>
+        <v>87</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>87</v>
@@ -15537,21 +15628,21 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>641</v>
+        <v>572</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>87</v>
@@ -15560,23 +15651,21 @@
         <v>87</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>385</v>
+        <v>144</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>386</v>
+        <v>145</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>387</v>
+        <v>217</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="O109" t="s" s="2">
-        <v>389</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
         <v>87</v>
       </c>
@@ -15624,19 +15713,19 @@
         <v>87</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>390</v>
+        <v>220</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>87</v>
@@ -15645,10 +15734,10 @@
         <v>87</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>391</v>
+        <v>87</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>392</v>
+        <v>214</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>87</v>
@@ -15659,21 +15748,21 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>643</v>
+        <v>573</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>87</v>
+        <v>509</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>87</v>
@@ -15685,24 +15774,24 @@
         <v>99</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>395</v>
+        <v>510</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N110" s="2"/>
+        <v>511</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O110" t="s" s="2">
-        <v>397</v>
+        <v>153</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="Q110" t="s" s="2">
-        <v>398</v>
-      </c>
+      <c r="Q110" s="2"/>
       <c r="R110" t="s" s="2">
         <v>87</v>
       </c>
@@ -15722,13 +15811,13 @@
         <v>87</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>187</v>
+        <v>87</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>399</v>
+        <v>87</v>
       </c>
       <c r="Z110" t="s" s="2">
-        <v>400</v>
+        <v>87</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>87</v>
@@ -15746,19 +15835,19 @@
         <v>87</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>401</v>
+        <v>512</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>87</v>
@@ -15767,10 +15856,10 @@
         <v>87</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>402</v>
+        <v>87</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>403</v>
+        <v>141</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>87</v>
@@ -15781,10 +15870,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>645</v>
+        <v>574</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15792,13 +15881,13 @@
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="G111" t="s" s="2">
         <v>98</v>
       </c>
       <c r="H111" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="I111" t="s" s="2">
         <v>87</v>
@@ -15807,17 +15896,19 @@
         <v>99</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>406</v>
+        <v>575</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N111" s="2"/>
+        <v>576</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>577</v>
+      </c>
       <c r="O111" t="s" s="2">
-        <v>408</v>
+        <v>578</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>87</v>
@@ -15827,7 +15918,7 @@
         <v>87</v>
       </c>
       <c r="S111" t="s" s="2">
-        <v>87</v>
+        <v>648</v>
       </c>
       <c r="T111" t="s" s="2">
         <v>87</v>
@@ -15842,13 +15933,13 @@
         <v>87</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>87</v>
+        <v>296</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>87</v>
+        <v>297</v>
       </c>
       <c r="Z111" t="s" s="2">
-        <v>87</v>
+        <v>298</v>
       </c>
       <c r="AA111" t="s" s="2">
         <v>87</v>
@@ -15866,10 +15957,10 @@
         <v>87</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>409</v>
+        <v>574</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>98</v>
@@ -15884,16 +15975,16 @@
         <v>87</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>87</v>
+        <v>579</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>410</v>
+        <v>301</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>411</v>
+        <v>302</v>
       </c>
       <c r="AO111" t="s" s="2">
-        <v>87</v>
+        <v>303</v>
       </c>
       <c r="AP111" t="s" s="2">
         <v>87</v>
@@ -15901,10 +15992,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>647</v>
+        <v>580</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15918,7 +16009,7 @@
         <v>98</v>
       </c>
       <c r="H112" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="I112" t="s" s="2">
         <v>87</v>
@@ -15927,17 +16018,19 @@
         <v>99</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>112</v>
+        <v>367</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>414</v>
+        <v>581</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N112" s="2"/>
+        <v>582</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>583</v>
+      </c>
       <c r="O112" t="s" s="2">
-        <v>416</v>
+        <v>370</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>87</v>
@@ -15947,7 +16040,7 @@
         <v>87</v>
       </c>
       <c r="S112" t="s" s="2">
-        <v>417</v>
+        <v>87</v>
       </c>
       <c r="T112" t="s" s="2">
         <v>87</v>
@@ -15962,31 +16055,29 @@
         <v>87</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>87</v>
+        <v>296</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>87</v>
+        <v>584</v>
       </c>
       <c r="Z112" t="s" s="2">
-        <v>87</v>
+        <v>585</v>
       </c>
       <c r="AA112" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AB112" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AC112" t="s" s="2">
-        <v>87</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="AC112" s="2"/>
       <c r="AD112" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>87</v>
+        <v>203</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>418</v>
+        <v>580</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>85</v>
@@ -15995,7 +16086,7 @@
         <v>98</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>419</v>
+        <v>586</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>110</v>
@@ -16004,29 +16095,31 @@
         <v>87</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>87</v>
+        <v>587</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>410</v>
+        <v>373</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>420</v>
+        <v>374</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AP112" t="s" s="2">
-        <v>87</v>
+        <v>375</v>
       </c>
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="C113" s="2"/>
+        <v>580</v>
+      </c>
+      <c r="C113" t="s" s="2">
+        <v>377</v>
+      </c>
       <c r="D113" t="s" s="2">
         <v>87</v>
       </c>
@@ -16038,7 +16131,7 @@
         <v>98</v>
       </c>
       <c r="H113" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="I113" t="s" s="2">
         <v>87</v>
@@ -16047,19 +16140,19 @@
         <v>99</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>118</v>
+        <v>378</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>423</v>
+        <v>581</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>424</v>
+        <v>582</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>425</v>
+        <v>583</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>426</v>
+        <v>370</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>87</v>
@@ -16069,7 +16162,7 @@
         <v>87</v>
       </c>
       <c r="S113" t="s" s="2">
-        <v>650</v>
+        <v>87</v>
       </c>
       <c r="T113" t="s" s="2">
         <v>87</v>
@@ -16084,13 +16177,13 @@
         <v>87</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>87</v>
+        <v>296</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>87</v>
+        <v>584</v>
       </c>
       <c r="Z113" t="s" s="2">
-        <v>87</v>
+        <v>585</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>87</v>
@@ -16108,7 +16201,7 @@
         <v>87</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>428</v>
+        <v>580</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>85</v>
@@ -16117,7 +16210,7 @@
         <v>98</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>87</v>
+        <v>586</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>110</v>
@@ -16126,19 +16219,19 @@
         <v>87</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>87</v>
+        <v>587</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>410</v>
+        <v>373</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>429</v>
+        <v>374</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AP113" t="s" s="2">
-        <v>87</v>
+        <v>375</v>
       </c>
     </row>
     <row r="114" hidden="true">
@@ -16146,7 +16239,7 @@
         <v>651</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>588</v>
+        <v>607</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16160,7 +16253,7 @@
         <v>98</v>
       </c>
       <c r="H114" t="s" s="2">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="I114" t="s" s="2">
         <v>87</v>
@@ -16169,20 +16262,16 @@
         <v>87</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>589</v>
+        <v>211</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="O114" t="s" s="2">
-        <v>434</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="N114" s="2"/>
+      <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
         <v>87</v>
       </c>
@@ -16206,13 +16295,13 @@
         <v>87</v>
       </c>
       <c r="X114" t="s" s="2">
-        <v>296</v>
+        <v>87</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>435</v>
+        <v>87</v>
       </c>
       <c r="Z114" t="s" s="2">
-        <v>436</v>
+        <v>87</v>
       </c>
       <c r="AA114" t="s" s="2">
         <v>87</v>
@@ -16230,7 +16319,7 @@
         <v>87</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>588</v>
+        <v>213</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>85</v>
@@ -16239,10 +16328,10 @@
         <v>98</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>592</v>
+        <v>87</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>87</v>
@@ -16251,10 +16340,10 @@
         <v>87</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>141</v>
+        <v>87</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>438</v>
+        <v>214</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>87</v>
@@ -16268,11 +16357,11 @@
         <v>652</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>593</v>
+        <v>609</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
-        <v>440</v>
+        <v>143</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
@@ -16291,20 +16380,18 @@
         <v>87</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>195</v>
+        <v>144</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>441</v>
+        <v>145</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>442</v>
+        <v>217</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="O115" t="s" s="2">
-        <v>444</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
         <v>87</v>
       </c>
@@ -16328,31 +16415,31 @@
         <v>87</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>296</v>
+        <v>87</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>445</v>
+        <v>87</v>
       </c>
       <c r="Z115" t="s" s="2">
-        <v>446</v>
+        <v>87</v>
       </c>
       <c r="AA115" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AB115" t="s" s="2">
-        <v>87</v>
+        <v>218</v>
       </c>
       <c r="AC115" t="s" s="2">
-        <v>87</v>
+        <v>219</v>
       </c>
       <c r="AD115" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>87</v>
+        <v>203</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>593</v>
+        <v>220</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>85</v>
@@ -16364,25 +16451,25 @@
         <v>87</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>447</v>
+        <v>87</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>448</v>
+        <v>87</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>449</v>
+        <v>214</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AP115" t="s" s="2">
-        <v>450</v>
+        <v>87</v>
       </c>
     </row>
     <row r="116" hidden="true">
@@ -16390,7 +16477,7 @@
         <v>653</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>594</v>
+        <v>611</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16401,7 +16488,7 @@
         <v>85</v>
       </c>
       <c r="G116" t="s" s="2">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H116" t="s" s="2">
         <v>87</v>
@@ -16410,22 +16497,22 @@
         <v>87</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>88</v>
+        <v>385</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>595</v>
+        <v>386</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>596</v>
+        <v>387</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>501</v>
+        <v>388</v>
       </c>
       <c r="O116" t="s" s="2">
-        <v>502</v>
+        <v>389</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>87</v>
@@ -16474,13 +16561,13 @@
         <v>87</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>594</v>
+        <v>390</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH116" t="s" s="2">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="AI116" t="s" s="2">
         <v>87</v>
@@ -16495,20 +16582,2930 @@
         <v>87</v>
       </c>
       <c r="AM116" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AN116" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AO116" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AP116" t="s" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="117" hidden="true">
+      <c r="A117" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="B117" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="C117" s="2"/>
+      <c r="D117" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="E117" s="2"/>
+      <c r="F117" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G117" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="H117" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="I117" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="J117" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K117" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="L117" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="M117" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="N117" s="2"/>
+      <c r="O117" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="P117" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="Q117" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="R117" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="S117" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="T117" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="U117" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="V117" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="W117" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="X117" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="Y117" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="Z117" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AA117" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AB117" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AC117" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AD117" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AE117" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AF117" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AG117" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH117" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AI117" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AJ117" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AK117" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AL117" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AM117" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AN117" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AO117" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AP117" t="s" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="118" hidden="true">
+      <c r="A118" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="B118" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="C118" s="2"/>
+      <c r="D118" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="E118" s="2"/>
+      <c r="F118" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G118" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="H118" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="I118" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J118" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K118" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L118" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="N118" s="2"/>
+      <c r="O118" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="P118" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="Q118" s="2"/>
+      <c r="R118" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="S118" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="T118" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="U118" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="V118" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="W118" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="X118" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="Y118" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="Z118" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AA118" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AB118" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AC118" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AD118" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AE118" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AF118" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AG118" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH118" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AI118" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AJ118" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AK118" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AL118" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AM118" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AN118" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AO118" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AP118" t="s" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="119" hidden="true">
+      <c r="A119" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="B119" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="C119" s="2"/>
+      <c r="D119" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="E119" s="2"/>
+      <c r="F119" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G119" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="H119" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="I119" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J119" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K119" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L119" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="N119" s="2"/>
+      <c r="O119" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="P119" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="Q119" s="2"/>
+      <c r="R119" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="S119" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="T119" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="U119" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="V119" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="W119" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="X119" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="Y119" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="Z119" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AA119" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AB119" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AC119" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AD119" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AE119" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AF119" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AG119" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH119" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AI119" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AJ119" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AK119" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AL119" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AM119" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AN119" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AO119" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AP119" t="s" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="120" hidden="true">
+      <c r="A120" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="B120" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="C120" s="2"/>
+      <c r="D120" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="E120" s="2"/>
+      <c r="F120" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G120" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="H120" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="I120" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J120" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K120" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="L120" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="M120" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="N120" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="O120" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="P120" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="Q120" s="2"/>
+      <c r="R120" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="S120" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="T120" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="U120" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="V120" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="W120" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="X120" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="Y120" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="Z120" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AA120" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AB120" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AC120" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AD120" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AE120" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AF120" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AG120" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH120" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AI120" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AJ120" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AK120" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AL120" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AM120" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AN120" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AO120" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AP120" t="s" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="121" hidden="true">
+      <c r="A121" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="B121" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="C121" s="2"/>
+      <c r="D121" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="E121" s="2"/>
+      <c r="F121" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G121" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="H121" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="I121" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J121" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K121" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L121" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="M121" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="N121" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="O121" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="P121" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="Q121" s="2"/>
+      <c r="R121" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="S121" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="T121" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="U121" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="V121" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="W121" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="X121" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="Y121" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="Z121" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AA121" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AB121" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AC121" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AD121" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AE121" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AF121" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="AG121" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH121" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AI121" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="AJ121" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AK121" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AL121" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AM121" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AN121" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AO121" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AP121" t="s" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="122" hidden="true">
+      <c r="A122" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="B122" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="C122" s="2"/>
+      <c r="D122" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="E122" s="2"/>
+      <c r="F122" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G122" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H122" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="I122" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J122" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K122" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L122" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="M122" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="N122" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="O122" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="P122" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="Q122" s="2"/>
+      <c r="R122" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="S122" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="T122" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="U122" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="V122" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="W122" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="X122" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="Y122" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="Z122" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AA122" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AB122" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AC122" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AD122" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AE122" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AF122" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="AG122" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH122" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI122" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AJ122" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AK122" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AL122" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AM122" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AN122" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AO122" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AP122" t="s" s="2">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="123" hidden="true">
+      <c r="A123" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="B123" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="C123" s="2"/>
+      <c r="D123" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="E123" s="2"/>
+      <c r="F123" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G123" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H123" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="I123" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J123" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K123" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="L123" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="M123" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="N123" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="O123" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="P123" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="Q123" s="2"/>
+      <c r="R123" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="S123" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="T123" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="U123" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="V123" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="W123" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="X123" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="Y123" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="Z123" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AA123" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AB123" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AC123" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AD123" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AE123" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AF123" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="AG123" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH123" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI123" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AJ123" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AK123" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AL123" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AM123" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="AN116" t="s" s="2">
+      <c r="AN123" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="AO116" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AP116" t="s" s="2">
+      <c r="AO123" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AP123" t="s" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="124" hidden="true">
+      <c r="A124" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="B124" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="C124" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="D124" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="E124" s="2"/>
+      <c r="F124" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G124" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="H124" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="I124" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J124" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K124" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="L124" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="M124" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="N124" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="O124" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="P124" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="Q124" s="2"/>
+      <c r="R124" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="S124" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="T124" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="U124" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="V124" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="W124" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="X124" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="Y124" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="Z124" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AA124" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AB124" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AC124" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AD124" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AE124" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AF124" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="AG124" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH124" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI124" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AJ124" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AK124" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AL124" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AM124" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AN124" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="AO124" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AP124" t="s" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="125" hidden="true">
+      <c r="A125" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="B125" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="C125" s="2"/>
+      <c r="D125" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="E125" s="2"/>
+      <c r="F125" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G125" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="H125" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="I125" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J125" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K125" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L125" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M125" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="N125" s="2"/>
+      <c r="O125" s="2"/>
+      <c r="P125" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="Q125" s="2"/>
+      <c r="R125" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="S125" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="T125" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="U125" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="V125" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="W125" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="X125" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="Y125" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="Z125" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AA125" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AB125" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AC125" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AD125" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AE125" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AF125" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AG125" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH125" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AI125" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AJ125" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AK125" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AL125" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AM125" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AN125" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AO125" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AP125" t="s" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="126" hidden="true">
+      <c r="A126" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="B126" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="C126" s="2"/>
+      <c r="D126" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="E126" s="2"/>
+      <c r="F126" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G126" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H126" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="I126" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J126" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K126" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L126" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="M126" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="N126" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="O126" s="2"/>
+      <c r="P126" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="Q126" s="2"/>
+      <c r="R126" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="S126" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="T126" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="U126" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="V126" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="W126" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="X126" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="Y126" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="Z126" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AA126" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AB126" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AC126" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AD126" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AE126" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AF126" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AG126" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH126" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI126" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AJ126" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AK126" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AL126" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AM126" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AN126" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AO126" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AP126" t="s" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="127" hidden="true">
+      <c r="A127" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="B127" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="C127" s="2"/>
+      <c r="D127" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="E127" s="2"/>
+      <c r="F127" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G127" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H127" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="I127" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="J127" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K127" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L127" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="M127" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="N127" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="O127" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="P127" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="Q127" s="2"/>
+      <c r="R127" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="S127" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="T127" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="U127" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="V127" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="W127" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="X127" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="Y127" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="Z127" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AA127" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AB127" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AC127" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AD127" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AE127" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AF127" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AG127" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH127" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI127" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AJ127" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AK127" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AL127" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AM127" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AN127" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AO127" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AP127" t="s" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="128" hidden="true">
+      <c r="A128" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="B128" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="C128" s="2"/>
+      <c r="D128" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="E128" s="2"/>
+      <c r="F128" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="G128" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="H128" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="I128" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J128" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K128" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L128" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="M128" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="N128" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="O128" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="P128" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="Q128" s="2"/>
+      <c r="R128" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="S128" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="T128" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="U128" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="V128" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="W128" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="X128" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="Y128" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="Z128" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AA128" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AB128" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AC128" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AD128" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AE128" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AF128" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AG128" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AH128" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AI128" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AJ128" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AK128" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AL128" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="AM128" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AN128" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AO128" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AP128" t="s" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="129" hidden="true">
+      <c r="A129" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="B129" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="C129" s="2"/>
+      <c r="D129" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="E129" s="2"/>
+      <c r="F129" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G129" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="H129" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="I129" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J129" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K129" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L129" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="M129" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="N129" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="O129" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="P129" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="Q129" s="2"/>
+      <c r="R129" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="S129" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="T129" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="U129" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="V129" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="W129" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="X129" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="Y129" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="Z129" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="AA129" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AB129" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AC129" s="2"/>
+      <c r="AD129" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AE129" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AF129" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="AG129" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH129" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AI129" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="AJ129" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AK129" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AL129" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="AM129" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AN129" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AO129" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AP129" t="s" s="2">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="130" hidden="true">
+      <c r="A130" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="B130" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="C130" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="D130" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="E130" s="2"/>
+      <c r="F130" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G130" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="H130" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="I130" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J130" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K130" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L130" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="M130" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="N130" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="O130" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="P130" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="Q130" s="2"/>
+      <c r="R130" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="S130" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="T130" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="U130" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="V130" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="W130" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="X130" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="Y130" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="Z130" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="AA130" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AB130" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AC130" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AD130" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AE130" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AF130" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="AG130" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH130" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AI130" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="AJ130" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AK130" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AL130" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="AM130" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AN130" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AO130" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AP130" t="s" s="2">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="131" hidden="true">
+      <c r="A131" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="B131" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="C131" s="2"/>
+      <c r="D131" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="E131" s="2"/>
+      <c r="F131" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G131" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="H131" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="I131" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J131" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K131" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L131" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M131" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="N131" s="2"/>
+      <c r="O131" s="2"/>
+      <c r="P131" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="Q131" s="2"/>
+      <c r="R131" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="S131" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="T131" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="U131" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="V131" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="W131" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="X131" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="Y131" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="Z131" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AA131" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AB131" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AC131" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AD131" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AE131" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AF131" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AG131" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH131" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AI131" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AJ131" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AK131" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AL131" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AM131" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AN131" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AO131" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AP131" t="s" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="132" hidden="true">
+      <c r="A132" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="B132" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="C132" s="2"/>
+      <c r="D132" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="E132" s="2"/>
+      <c r="F132" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G132" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H132" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="I132" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J132" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K132" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L132" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="M132" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="N132" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="O132" s="2"/>
+      <c r="P132" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="Q132" s="2"/>
+      <c r="R132" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="S132" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="T132" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="U132" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="V132" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="W132" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="X132" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="Y132" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="Z132" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AA132" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AB132" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AC132" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AD132" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AE132" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AF132" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AG132" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH132" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI132" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AJ132" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AK132" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AL132" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AM132" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AN132" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AO132" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AP132" t="s" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="133" hidden="true">
+      <c r="A133" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="B133" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="C133" s="2"/>
+      <c r="D133" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="E133" s="2"/>
+      <c r="F133" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G133" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="H133" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="I133" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J133" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K133" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L133" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="M133" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="N133" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="O133" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="P133" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="Q133" s="2"/>
+      <c r="R133" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="S133" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="T133" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="U133" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="V133" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="W133" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="X133" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="Y133" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="Z133" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AA133" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AB133" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AC133" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AD133" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AE133" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AF133" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AG133" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH133" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AI133" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AJ133" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AK133" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AL133" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AM133" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AN133" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AO133" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AP133" t="s" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="134" hidden="true">
+      <c r="A134" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="B134" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="C134" s="2"/>
+      <c r="D134" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="E134" s="2"/>
+      <c r="F134" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G134" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="H134" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="I134" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="J134" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K134" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="L134" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="M134" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="N134" s="2"/>
+      <c r="O134" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="P134" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="Q134" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="R134" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="S134" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="T134" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="U134" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="V134" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="W134" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="X134" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="Y134" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="Z134" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AA134" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AB134" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AC134" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AD134" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AE134" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AF134" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AG134" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH134" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AI134" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AJ134" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AK134" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AL134" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AM134" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AN134" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AO134" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AP134" t="s" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="135" hidden="true">
+      <c r="A135" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="B135" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="C135" s="2"/>
+      <c r="D135" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="E135" s="2"/>
+      <c r="F135" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G135" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="H135" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="I135" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J135" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K135" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L135" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="M135" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="N135" s="2"/>
+      <c r="O135" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="P135" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="Q135" s="2"/>
+      <c r="R135" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="S135" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="T135" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="U135" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="V135" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="W135" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="X135" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="Y135" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="Z135" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AA135" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AB135" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AC135" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AD135" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AE135" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AF135" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AG135" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH135" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AI135" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AJ135" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AK135" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AL135" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AM135" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AN135" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AO135" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AP135" t="s" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="136" hidden="true">
+      <c r="A136" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="B136" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="C136" s="2"/>
+      <c r="D136" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="E136" s="2"/>
+      <c r="F136" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G136" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="H136" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="I136" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J136" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K136" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L136" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="M136" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="N136" s="2"/>
+      <c r="O136" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="P136" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="Q136" s="2"/>
+      <c r="R136" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="S136" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="T136" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="U136" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="V136" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="W136" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="X136" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="Y136" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="Z136" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AA136" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AB136" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AC136" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AD136" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AE136" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AF136" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AG136" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH136" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AI136" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AJ136" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AK136" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AL136" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AM136" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AN136" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AO136" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AP136" t="s" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="137" hidden="true">
+      <c r="A137" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="B137" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="C137" s="2"/>
+      <c r="D137" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="E137" s="2"/>
+      <c r="F137" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G137" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="H137" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="I137" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J137" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K137" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="L137" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="M137" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="N137" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="O137" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="P137" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="Q137" s="2"/>
+      <c r="R137" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="S137" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="T137" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="U137" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="V137" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="W137" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="X137" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="Y137" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="Z137" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AA137" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AB137" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AC137" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AD137" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AE137" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AF137" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AG137" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH137" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AI137" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AJ137" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AK137" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AL137" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AM137" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AN137" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AO137" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AP137" t="s" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="138" hidden="true">
+      <c r="A138" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="B138" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="C138" s="2"/>
+      <c r="D138" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="E138" s="2"/>
+      <c r="F138" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G138" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="H138" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="I138" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J138" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K138" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L138" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="M138" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="N138" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="O138" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="P138" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="Q138" s="2"/>
+      <c r="R138" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="S138" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="T138" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="U138" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="V138" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="W138" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="X138" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="Y138" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="Z138" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AA138" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AB138" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AC138" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AD138" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AE138" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AF138" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="AG138" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH138" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AI138" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="AJ138" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AK138" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AL138" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AM138" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AN138" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AO138" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AP138" t="s" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="139" hidden="true">
+      <c r="A139" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="B139" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="C139" s="2"/>
+      <c r="D139" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="E139" s="2"/>
+      <c r="F139" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G139" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H139" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="I139" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J139" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K139" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L139" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="M139" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="N139" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="O139" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="P139" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="Q139" s="2"/>
+      <c r="R139" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="S139" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="T139" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="U139" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="V139" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="W139" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="X139" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="Y139" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="Z139" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AA139" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AB139" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AC139" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AD139" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AE139" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AF139" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="AG139" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH139" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI139" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AJ139" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AK139" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AL139" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AM139" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AN139" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AO139" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AP139" t="s" s="2">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="140" hidden="true">
+      <c r="A140" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="B140" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="C140" s="2"/>
+      <c r="D140" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="E140" s="2"/>
+      <c r="F140" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G140" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H140" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="I140" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J140" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K140" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="L140" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="M140" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="N140" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="O140" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="P140" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="Q140" s="2"/>
+      <c r="R140" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="S140" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="T140" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="U140" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="V140" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="W140" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="X140" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="Y140" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="Z140" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AA140" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AB140" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AC140" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AD140" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AE140" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AF140" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="AG140" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH140" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI140" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AJ140" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AK140" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AL140" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AM140" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AN140" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AO140" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AP140" t="s" s="2">
         <v>87</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP116">
+  <autoFilter ref="A1:AP140">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -16518,7 +19515,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI115">
+  <conditionalFormatting sqref="A2:AI139">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-heart-rate-observation.xlsx
+++ b/output/StructureDefinition-heart-rate-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T23:24:47+01:00</t>
+    <t>2025-10-02T07:31:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-heart-rate-observation.xlsx
+++ b/output/StructureDefinition-heart-rate-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T07:31:55+01:00</t>
+    <t>2025-10-02T11:12:29+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-heart-rate-observation.xlsx
+++ b/output/StructureDefinition-heart-rate-observation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5433" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5433" uniqueCount="680">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:12:29+01:00</t>
+    <t>2025-10-02T18:31:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1993,7 +1993,7 @@
   &lt;coding&gt;
     &lt;system value="http://loinc.org"/&gt;
     &lt;code value="55425-3"/&gt;
-    &lt;display value="Heart rate --during exercise"/&gt;
+    &lt;display value="Heart rate unspecified time mean by Pedometer"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -2050,15 +2050,6 @@
   </si>
   <si>
     <t>Observation.component:recoveryHeartRate.code</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://loinc.org"/&gt;
-    &lt;code value="69999-9"/&gt;
-    &lt;display value="Heart rate --post exercise"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>Observation.component:recoveryHeartRate.value[x]</t>
@@ -4140,7 +4131,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>182</v>
       </c>
@@ -4380,7 +4371,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>206</v>
       </c>
@@ -4742,7 +4733,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>221</v>
       </c>
@@ -5102,7 +5093,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>235</v>
       </c>
@@ -5344,7 +5335,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>253</v>
       </c>
@@ -5828,7 +5819,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
         <v>289</v>
       </c>
@@ -5950,7 +5941,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
         <v>305</v>
       </c>
@@ -6434,7 +6425,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
         <v>347</v>
       </c>
@@ -6918,7 +6909,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
         <v>376</v>
       </c>
@@ -7886,7 +7877,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
         <v>430</v>
       </c>
@@ -8614,7 +8605,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
         <v>488</v>
       </c>
@@ -10654,7 +10645,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
         <v>574</v>
       </c>
@@ -10776,7 +10767,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
         <v>580</v>
       </c>
@@ -10898,7 +10889,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
         <v>588</v>
       </c>
@@ -11264,7 +11255,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
         <v>597</v>
       </c>
@@ -11748,7 +11739,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
         <v>602</v>
       </c>
@@ -11990,7 +11981,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="79" hidden="true">
+    <row r="79">
       <c r="A79" t="s" s="2">
         <v>605</v>
       </c>
@@ -12958,7 +12949,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="87" hidden="true">
+    <row r="87">
       <c r="A87" t="s" s="2">
         <v>620</v>
       </c>
@@ -13324,7 +13315,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" hidden="true">
+    <row r="90">
       <c r="A90" t="s" s="2">
         <v>623</v>
       </c>
@@ -13808,7 +13799,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="94" hidden="true">
+    <row r="94">
       <c r="A94" t="s" s="2">
         <v>628</v>
       </c>
@@ -14050,7 +14041,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="96" hidden="true">
+    <row r="96">
       <c r="A96" t="s" s="2">
         <v>631</v>
       </c>
@@ -15018,7 +15009,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="104" hidden="true">
+    <row r="104">
       <c r="A104" t="s" s="2">
         <v>639</v>
       </c>
@@ -15384,7 +15375,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="107" hidden="true">
+    <row r="107">
       <c r="A107" t="s" s="2">
         <v>642</v>
       </c>
@@ -15868,7 +15859,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="111" hidden="true">
+    <row r="111">
       <c r="A111" t="s" s="2">
         <v>647</v>
       </c>
@@ -15918,7 +15909,7 @@
         <v>87</v>
       </c>
       <c r="S111" t="s" s="2">
-        <v>648</v>
+        <v>295</v>
       </c>
       <c r="T111" t="s" s="2">
         <v>87</v>
@@ -15992,7 +15983,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>580</v>
@@ -16110,9 +16101,9 @@
         <v>375</v>
       </c>
     </row>
-    <row r="113" hidden="true">
+    <row r="113">
       <c r="A113" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>580</v>
@@ -16236,7 +16227,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>607</v>
@@ -16354,7 +16345,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>609</v>
@@ -16474,7 +16465,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>611</v>
@@ -16596,7 +16587,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>613</v>
@@ -16718,7 +16709,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>615</v>
@@ -16838,7 +16829,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>617</v>
@@ -16958,7 +16949,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>619</v>
@@ -17078,9 +17069,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="121" hidden="true">
+    <row r="121">
       <c r="A121" t="s" s="2">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>588</v>
@@ -17202,7 +17193,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>593</v>
@@ -17324,7 +17315,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>594</v>
@@ -17444,15 +17435,15 @@
         <v>87</v>
       </c>
     </row>
-    <row r="124" hidden="true">
+    <row r="124">
       <c r="A124" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>563</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D124" t="s" s="2">
         <v>87</v>
@@ -17570,7 +17561,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>571</v>
@@ -17688,7 +17679,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>572</v>
@@ -17808,7 +17799,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B127" t="s" s="2">
         <v>573</v>
@@ -17928,9 +17919,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="128" hidden="true">
+    <row r="128">
       <c r="A128" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>574</v>
@@ -17978,7 +17969,7 @@
         <v>87</v>
       </c>
       <c r="S128" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="T128" t="s" s="2">
         <v>87</v>
@@ -18052,7 +18043,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>580</v>
@@ -18170,9 +18161,9 @@
         <v>375</v>
       </c>
     </row>
-    <row r="130" hidden="true">
+    <row r="130">
       <c r="A130" t="s" s="2">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>580</v>
@@ -18296,7 +18287,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>607</v>
@@ -18414,7 +18405,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>609</v>
@@ -18534,7 +18525,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>611</v>
@@ -18656,7 +18647,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>613</v>
@@ -18778,7 +18769,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>615</v>
@@ -18898,7 +18889,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>617</v>
@@ -19018,7 +19009,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>619</v>
@@ -19066,7 +19057,7 @@
         <v>87</v>
       </c>
       <c r="S137" t="s" s="2">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="T137" t="s" s="2">
         <v>87</v>
@@ -19138,9 +19129,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="138" hidden="true">
+    <row r="138">
       <c r="A138" t="s" s="2">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>588</v>
@@ -19262,7 +19253,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>593</v>
@@ -19384,7 +19375,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B140" t="s" s="2">
         <v>594</v>
@@ -19506,12 +19497,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP140">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/output/StructureDefinition-heart-rate-observation.xlsx
+++ b/output/StructureDefinition-heart-rate-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T18:31:12+01:00</t>
+    <t>2025-10-03T16:37:46+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-heart-rate-observation.xlsx
+++ b/output/StructureDefinition-heart-rate-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T16:37:46+01:00</t>
+    <t>2025-11-27T11:57:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-heart-rate-observation.xlsx
+++ b/output/StructureDefinition-heart-rate-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T11:57:11+00:00</t>
+    <t>2025-11-27T15:44:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-heart-rate-observation.xlsx
+++ b/output/StructureDefinition-heart-rate-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T17:03:01+00:00</t>
+    <t>2025-11-28T14:35:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-heart-rate-observation.xlsx
+++ b/output/StructureDefinition-heart-rate-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T14:35:57+00:00</t>
+    <t>2025-11-30T13:08:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
